--- a/Stocks/BAJAJELEC.xlsx
+++ b/Stocks/BAJAJELEC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>354.7</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>328.54818335865423</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>327.99802475579276</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>39.48827835970495</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>4.6999999999999886</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>10</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.46999999999999886</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>333.91788774775415</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-1.9324023340794838</v>
       </c>
       <c r="Y67">
         <v>-1.2134887580387397</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>340.5</v>
+      </c>
+      <c r="D83">
+        <v>345</v>
+      </c>
+      <c r="E83">
+        <v>335.7</v>
+      </c>
+      <c r="F83">
+        <v>344.95</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>341.88333333333338</v>
+      </c>
+      <c r="H83">
+        <v>340.31174745966632</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>339.9839888717961</v>
+      </c>
+      <c r="K83">
+        <v>327.55150673265285</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>80.542050308894645</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.3000000000000114</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.99462365591397728</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>331.1020053836512</v>
+      </c>
+      <c r="W83">
+        <v>329.57535396625201</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>1.5266514173991936</v>
+      </c>
+      <c r="Y83">
+        <v>-1.7235801504687336</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="35"/>
+        <v>336.75</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="36"/>
+        <v>339.25</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="37"/>
+        <v>340.35</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="38"/>
+        <v>341.45000000000005</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>340.6</v>
+      </c>
+      <c r="D84">
+        <v>342.7</v>
+      </c>
+      <c r="E84">
+        <v>334.4</v>
+      </c>
+      <c r="F84">
+        <v>337</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>338.0333333333333</v>
+      </c>
+      <c r="H84">
+        <v>339.17254039649981</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>340.58754690028587</v>
+      </c>
+      <c r="K84">
+        <v>329.07339412539665</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>57.394346126583351</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.31325301204819506</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>332.00938917078179</v>
+      </c>
+      <c r="W84">
+        <v>330.12532774652965</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>1.8840614242521383</v>
+      </c>
+      <c r="Y84">
+        <v>-1.0020518355245591</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>339.65</v>
+      </c>
+      <c r="D85">
+        <v>343.5</v>
+      </c>
+      <c r="E85">
+        <v>336.1</v>
+      </c>
+      <c r="F85">
+        <v>342.9</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>340.83333333333331</v>
+      </c>
+      <c r="H85">
+        <v>340.00293686491659</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>341.23475870022236</v>
+      </c>
+      <c r="K85">
+        <v>330.63486209753074</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>66.362513014087227</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.91891891891891564</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>333.68486775989226</v>
+      </c>
+      <c r="W85">
+        <v>331.07159976530522</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>2.6132679945870336</v>
+      </c>
+      <c r="Y85">
+        <v>-0.27898786950224053</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>343.8</v>
+      </c>
+      <c r="D86">
+        <v>353.9</v>
+      </c>
+      <c r="E86">
+        <v>340</v>
+      </c>
+      <c r="F86">
+        <v>347.75</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>347.2166666666667</v>
+      </c>
+      <c r="H86">
+        <v>343.60980176579164</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>344.04925676683962</v>
+      </c>
+      <c r="K86">
+        <v>332.71600385363502</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>72.344185608600199</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.75</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>13.899999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.55755395683453324</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>335.84873425837037</v>
+      </c>
+      <c r="W86">
+        <v>332.30703681972705</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>3.5416974386433253</v>
+      </c>
+      <c r="Y86">
+        <v>0.48514919212687269</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>349.9</v>
+      </c>
+      <c r="D87">
+        <v>352.8</v>
+      </c>
+      <c r="E87">
+        <v>340.55</v>
+      </c>
+      <c r="F87">
+        <v>342</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>345.11666666666662</v>
+      </c>
+      <c r="H87">
+        <v>344.3632342162291</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>345.99386637420861</v>
+      </c>
+      <c r="K87">
+        <v>334.45689188616058</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>57.255472043077695</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.25</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.11836734693877458</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>336.79508283400571</v>
+      </c>
+      <c r="W87">
+        <v>333.02503409233987</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>3.7700487416658461</v>
+      </c>
+      <c r="Y87">
+        <v>1.1421291020346676</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>342.25</v>
+      </c>
+      <c r="D88">
+        <v>348.9</v>
+      </c>
+      <c r="E88">
+        <v>340.05</v>
+      </c>
+      <c r="F88">
+        <v>345.1</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>344.68333333333339</v>
+      </c>
+      <c r="H88">
+        <v>344.52328377478125</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>346.63967384660668</v>
+      </c>
+      <c r="K88">
+        <v>335.69980480034712</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>62.52311074381408</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>8.8499999999999659</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.57062146892655718</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>338.07276239800484</v>
+      </c>
+      <c r="W88">
+        <v>333.91947601142579</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>4.1532863865790546</v>
+      </c>
+      <c r="Y88">
+        <v>1.7443605589435451</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>345.2</v>
+      </c>
+      <c r="D89">
+        <v>347.5</v>
+      </c>
+      <c r="E89">
+        <v>342.1</v>
+      </c>
+      <c r="F89">
+        <v>345</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>344.86666666666662</v>
+      </c>
+      <c r="H89">
+        <v>344.6949752207239</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>346.83085743624963</v>
+      </c>
+      <c r="K89">
+        <v>337.12207040026999</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>62.213959062594604</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.53703703703703509</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>339.13849125985024</v>
+      </c>
+      <c r="W89">
+        <v>334.74025556613498</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>4.3982356937152645</v>
+      </c>
+      <c r="Y89">
+        <v>2.275135585897889</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>344.5</v>
+      </c>
+      <c r="D90">
+        <v>345.05</v>
+      </c>
+      <c r="E90">
+        <v>339.05</v>
+      </c>
+      <c r="F90">
+        <v>344.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>342.86666666666662</v>
+      </c>
+      <c r="H90">
+        <v>343.78082094369529</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>346.43511133930525</v>
+      </c>
+      <c r="K90">
+        <v>337.55049920020997</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>60.348950732395558</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.90833333333333144</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>339.96333875833483</v>
+      </c>
+      <c r="W90">
+        <v>335.46319959827315</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>4.5001391600616785</v>
+      </c>
+      <c r="Y90">
+        <v>2.7201363007306467</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>345</v>
+      </c>
+      <c r="D91">
+        <v>349.15</v>
+      </c>
+      <c r="E91">
+        <v>337.35</v>
+      </c>
+      <c r="F91">
+        <v>341</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>342.5</v>
+      </c>
+      <c r="H91">
+        <v>343.14041047184764</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>347.03841993057074</v>
+      </c>
+      <c r="K91">
+        <v>337.50594382238552</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>47.808661007812525</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>3.6499999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>11.799999999999955</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.30932203389830437</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>340.12282510320637</v>
+      </c>
+      <c r="W91">
+        <v>335.87333296136404</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>4.2494921418423246</v>
+      </c>
+      <c r="Y91">
+        <v>3.0260074689529821</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>341</v>
+      </c>
+      <c r="D92">
+        <v>347.7</v>
+      </c>
+      <c r="E92">
+        <v>338.4</v>
+      </c>
+      <c r="F92">
+        <v>345.8</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>343.96666666666664</v>
+      </c>
+      <c r="H92">
+        <v>343.55353856925717</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>347.18543772377723</v>
+      </c>
+      <c r="K92">
+        <v>337.70462297296649</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>61.517119583332402</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7.4000000000000341</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>9.3000000000000114</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.79569892473118553</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>340.99623662579</v>
+      </c>
+      <c r="W92">
+        <v>336.60864163089263</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>4.3875949948973698</v>
+      </c>
+      <c r="Y92">
+        <v>3.2983249741418597</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>345.9</v>
+      </c>
+      <c r="D93">
+        <v>371.65</v>
+      </c>
+      <c r="E93">
+        <v>344.75</v>
+      </c>
+      <c r="F93">
+        <v>368</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>361.4666666666667</v>
+      </c>
+      <c r="H93">
+        <v>352.51010261796193</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>352.6220071184934</v>
+      </c>
+      <c r="K93">
+        <v>339.2702623123073</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>84.719859726609371</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>23.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>26.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.86431226765799329</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>345.15066176028387</v>
+      </c>
+      <c r="W93">
+        <v>338.93392743601169</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>6.2167343242721813</v>
+      </c>
+      <c r="Y93">
+        <v>3.8820068441679241</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>371.4</v>
+      </c>
+      <c r="D94">
+        <v>381</v>
+      </c>
+      <c r="E94">
+        <v>369.15</v>
+      </c>
+      <c r="F94">
+        <v>379</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>376.38333333333338</v>
+      </c>
+      <c r="H94">
+        <v>364.44671797564763</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>358.9282277588282</v>
+      </c>
+      <c r="K94">
+        <v>345.91020402068347</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>88.874552519566592</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>11.850000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.83122362869198341</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>350.35825225870173</v>
+      </c>
+      <c r="W94">
+        <v>341.9017846629738</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>8.4564675957279292</v>
+      </c>
+      <c r="Y94">
+        <v>4.7968989944799247</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>370.5</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>373.70000000000005</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>375.05</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>376.45000000000005</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>379.5</v>
+      </c>
+      <c r="D95">
+        <v>379.95</v>
+      </c>
+      <c r="E95">
+        <v>371</v>
+      </c>
+      <c r="F95">
+        <v>372.3</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>374.41666666666669</v>
+      </c>
+      <c r="H95">
+        <v>369.43169232115713</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>363.59973270131081</v>
+      </c>
+      <c r="K95">
+        <v>351.48571423830936</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>73.631633529902587</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>8.9499999999999886</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.14525139664804615</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>353.733905757363</v>
+      </c>
+      <c r="W95">
+        <v>344.15350431756832</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>9.5804014397946844</v>
+      </c>
+      <c r="Y95">
+        <v>5.7535994835428763</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>376</v>
+      </c>
+      <c r="D96">
+        <v>407.95</v>
+      </c>
+      <c r="E96">
+        <v>373.3</v>
+      </c>
+      <c r="F96">
+        <v>407</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>396.08333333333331</v>
+      </c>
+      <c r="H96">
+        <v>382.75751282724525</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>373.4553476565751</v>
+      </c>
+      <c r="K96">
+        <v>356.33333329646285</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>87.505148369267829</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>33.699999999999989</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>34.649999999999977</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.97258297258297288</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>361.92868948699947</v>
+      </c>
+      <c r="W96">
+        <v>348.80880029404472</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>13.119889192954759</v>
+      </c>
+      <c r="Y96">
+        <v>7.2268574254252531</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>377.25</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>386.55</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>390.65000000000003</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>394.70000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>404</v>
+      </c>
+      <c r="D97">
+        <v>411</v>
+      </c>
+      <c r="E97">
+        <v>386.6</v>
+      </c>
+      <c r="F97">
+        <v>390</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>395.86666666666662</v>
+      </c>
+      <c r="H97">
+        <v>389.31208974695596</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>381.79860373289176</v>
+      </c>
+      <c r="K97">
+        <v>363.0592592305822</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>66.181209212311899</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>24.399999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.13934426229508118</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>366.24735264284573</v>
+      </c>
+      <c r="W97">
+        <v>351.86000027226362</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>14.387352370582107</v>
+      </c>
+      <c r="Y97">
+        <v>8.6589564144566236</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>393.15</v>
+      </c>
+      <c r="D98">
+        <v>411.6</v>
+      </c>
+      <c r="E98">
+        <v>391</v>
+      </c>
+      <c r="F98">
+        <v>402.6</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>401.73333333333335</v>
+      </c>
+      <c r="H98">
+        <v>395.52271154014466</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>388.4211362366936</v>
+      </c>
+      <c r="K98">
+        <v>369.26831273489728</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>72.410157052898811</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>11.600000000000023</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>20.600000000000023</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.56310679611650538</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>371.84006762086949</v>
+      </c>
+      <c r="W98">
+        <v>355.61851877061446</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>16.221548850255033</v>
+      </c>
+      <c r="Y98">
+        <v>10.171474901616305</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>404.6</v>
+      </c>
+      <c r="D99">
+        <v>406.35</v>
+      </c>
+      <c r="E99">
+        <v>387.25</v>
+      </c>
+      <c r="F99">
+        <v>388.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>394.18333333333334</v>
+      </c>
+      <c r="H99">
+        <v>394.85302243673902</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>392.40532818409503</v>
+      </c>
+      <c r="K99">
+        <v>373.26424323825341</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>57.955084340407545</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>19.100000000000023</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>8.9005235602093544E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>374.47236490996647</v>
+      </c>
+      <c r="W99">
+        <v>358.08751738019856</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>16.38484752976791</v>
+      </c>
+      <c r="Y99">
+        <v>11.414149427246626</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>392.05</v>
+      </c>
+      <c r="D100">
+        <v>396.85</v>
+      </c>
+      <c r="E100">
+        <v>378.15</v>
+      </c>
+      <c r="F100">
+        <v>381</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>385.33333333333331</v>
+      </c>
+      <c r="H100">
+        <v>390.0931778850362</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>393.3930330320739</v>
+      </c>
+      <c r="K100">
+        <v>374.34996696308599</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>50.601062467334621</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.8500000000000227</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>18.700000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.15240641711230032</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>375.47661646227931</v>
+      </c>
+      <c r="W100">
+        <v>359.78473831499866</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>15.691878147280647</v>
+      </c>
+      <c r="Y100">
+        <v>12.26969517125343</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>387.7</v>
+      </c>
+      <c r="D101">
+        <v>391.8</v>
+      </c>
+      <c r="E101">
+        <v>375</v>
+      </c>
+      <c r="F101">
+        <v>376.95</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>381.25</v>
+      </c>
+      <c r="H101">
+        <v>385.6715889425181</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>393.03902569161306</v>
+      </c>
+      <c r="K101">
+        <v>374.49441874906688</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>46.81799494377119</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.11607142857142781</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>375.70329085269788</v>
+      </c>
+      <c r="W101">
+        <v>361.05623918055431</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>14.647051672143562</v>
+      </c>
+      <c r="Y101">
+        <v>12.745166471431457</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>376.2</v>
+      </c>
+      <c r="D102">
+        <v>396.65</v>
+      </c>
+      <c r="E102">
+        <v>369.3</v>
+      </c>
+      <c r="F102">
+        <v>372.7</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>379.55</v>
+      </c>
+      <c r="H102">
+        <v>382.61079447125906</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>393.84146442681015</v>
+      </c>
+      <c r="K102">
+        <v>373.34010347149649</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>42.636689850485524</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>27.349999999999966</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.12431444241316203</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>375.24124610612898</v>
+      </c>
+      <c r="W102">
+        <v>361.91873998199475</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>13.322506124134236</v>
+      </c>
+      <c r="Y102">
+        <v>12.860634401972012</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>374</v>
+      </c>
+      <c r="D103">
+        <v>374.5</v>
+      </c>
+      <c r="E103">
+        <v>341</v>
+      </c>
+      <c r="F103">
+        <v>357.35</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>357.61666666666662</v>
+      </c>
+      <c r="H103">
+        <v>370.11373056896286</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>389.54336122085232</v>
+      </c>
+      <c r="K103">
+        <v>366.15341381116394</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>30.385165731891593</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>16.350000000000023</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>33.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.48805970149253797</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>372.48874670518609</v>
+      </c>
+      <c r="W103">
+        <v>361.58031479814326</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>10.908431907042825</v>
+      </c>
+      <c r="Y103">
+        <v>12.470193902986175</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>359.7</v>
+      </c>
+      <c r="D104">
+        <v>368</v>
+      </c>
+      <c r="E104">
+        <v>352.4</v>
+      </c>
+      <c r="F104">
+        <v>356.9</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>359.09999999999997</v>
+      </c>
+      <c r="H104">
+        <v>364.60686528448139</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>384.75594761621846</v>
+      </c>
+      <c r="K104">
+        <v>363.09709963090529</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>30.06854943630108</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>15.600000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.28846153846153805</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>370.09047798131132</v>
+      </c>
+      <c r="W104">
+        <v>361.23362481309562</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>8.8568531682157072</v>
+      </c>
+      <c r="Y104">
+        <v>11.747525756032081</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
